--- a/CoalMining1/Данные для графиков (2).xlsx
+++ b/CoalMining1/Данные для графиков (2).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C90AF0-622A-41DD-B50A-60559AAF08CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2816E57-3FBD-4DF9-998A-C6ECA5B21C65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="629" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="629" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Концетрация и обьем метана" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Генерация на ШМ" sheetId="3" r:id="rId3"/>
     <sheet name="потрбление из сети с СГ" sheetId="4" r:id="rId4"/>
     <sheet name="Выбросы СО2 при генерации на ШМ" sheetId="5" r:id="rId5"/>
-    <sheet name="Нагрузка ЦОД" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>кВт</t>
   </si>
@@ -71,9 +70,6 @@
   </si>
   <si>
     <t>с ут, руб</t>
-  </si>
-  <si>
-    <t>о.е.</t>
   </si>
 </sst>
 </file>
@@ -7499,8 +7495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D264F59F-D01A-408F-8F75-7D0FF6873DEB}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7567,7 +7563,7 @@
         <v>29.225484288000001</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="3">D3*1.6</f>
+        <f>D3*1.6</f>
         <v>0.42717143040000005</v>
       </c>
     </row>
@@ -7591,7 +7587,7 @@
         <v>23.605198848000004</v>
       </c>
       <c r="F4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F3:F25" si="3">D4*1.6</f>
         <v>0.34502307840000013</v>
       </c>
     </row>
@@ -8103,144 +8099,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC7CDAB-4361-4CC4-9FAE-9357DF7E9203}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>